--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
   <si>
     <t xml:space="preserve">Сентябрь</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">Модели с непрерывными и дискретными предикторами (ANCOVA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разделить анкову</t>
   </si>
   <si>
     <t xml:space="preserve">Октябрь</t>
@@ -448,7 +451,7 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W10" activeCellId="0" sqref="W10"/>
+      <selection pane="topLeft" activeCell="W12" activeCellId="0" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -460,7 +463,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="2.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="2.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="58.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="2" width="6.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="24" style="1" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="6.54"/>
   </cols>
@@ -607,8 +611,8 @@
         <v>17</v>
       </c>
       <c r="V3" s="2" t="n">
-        <f aca="false">22*4</f>
-        <v>88</v>
+        <f aca="false">23*4</f>
+        <v>92</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>18</v>
@@ -673,10 +677,12 @@
       <c r="U4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
@@ -737,7 +743,10 @@
       <c r="U5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -800,6 +809,7 @@
       <c r="U6" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="V6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="n">
@@ -858,6 +868,7 @@
       <c r="U7" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="V7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
@@ -892,6 +903,7 @@
       <c r="U8" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="V8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
@@ -923,10 +935,16 @@
       <c r="U9" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="V9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -936,7 +954,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="6"/>
       <c r="I10" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -948,7 +966,7 @@
         <v>8</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>4</v>
@@ -957,8 +975,9 @@
         <v>10</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="V10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
@@ -1008,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>4</v>
@@ -1017,8 +1036,9 @@
         <v>11</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="V11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
@@ -1054,7 +1074,7 @@
         <v>8</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>4</v>
@@ -1063,9 +1083,10 @@
         <v>12</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
@@ -1115,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>4</v>
@@ -1124,8 +1145,9 @@
         <v>13</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="V13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -1175,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S14" s="7" t="s">
         <v>13</v>
@@ -1184,10 +1206,13 @@
         <v>14</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="V14" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1238,7 +1263,7 @@
         <v>8</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>4</v>
@@ -1247,9 +1272,12 @@
         <v>15</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="V15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1295,7 +1323,7 @@
         <v>8</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S16" s="7" t="s">
         <v>13</v>
@@ -1304,7 +1332,7 @@
         <v>16</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1331,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S17" s="4" t="s">
         <v>4</v>
@@ -1340,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1348,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S18" s="7" t="s">
         <v>13</v>
@@ -1357,7 +1385,7 @@
         <v>18</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">3 окт</t>
   </si>
   <si>
-    <t xml:space="preserve">Краткое введение в мир матричной алгебры</t>
+    <t xml:space="preserve">Краткое введение в мир линейной алгебры</t>
   </si>
   <si>
     <t xml:space="preserve">7 окт</t>
@@ -450,8 +450,8 @@
   </sheetPr>
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W12" activeCellId="0" sqref="W12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U10" activeCellId="0" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Timetable.xlsx
+++ b/Timetable.xlsx
@@ -115,7 +115,7 @@
     <t xml:space="preserve">Множественная линейная регрессия. Выбор оптимальной модели.</t>
   </si>
   <si>
-    <t xml:space="preserve">17 окт</t>
+    <t xml:space="preserve">14 окт</t>
   </si>
   <si>
     <t xml:space="preserve">Модели с непрерывными и дискретными предикторами (ANCOVA)</t>
@@ -130,31 +130,31 @@
     <t xml:space="preserve">Декабрь</t>
   </si>
   <si>
-    <t xml:space="preserve">24 окт</t>
+    <t xml:space="preserve">21 окт</t>
   </si>
   <si>
     <t xml:space="preserve">Однофакторный дисперсионный анализ</t>
   </si>
   <si>
-    <t xml:space="preserve">31 окт</t>
+    <t xml:space="preserve">28 окт</t>
   </si>
   <si>
     <t xml:space="preserve">Многофакторный дисперсионный анализ</t>
   </si>
   <si>
-    <t xml:space="preserve">7 ноя</t>
+    <t xml:space="preserve">11 ноя</t>
   </si>
   <si>
     <t xml:space="preserve">GLM для нормально распределенных данных</t>
   </si>
   <si>
-    <t xml:space="preserve">14 ноя</t>
+    <t xml:space="preserve">18 ноя</t>
   </si>
   <si>
     <t xml:space="preserve">GLM для счетных данных</t>
   </si>
   <si>
-    <t xml:space="preserve">21 ноя</t>
+    <t xml:space="preserve">25 ноя</t>
   </si>
   <si>
     <t xml:space="preserve">GLM для бинарных данных</t>
@@ -163,25 +163,25 @@
     <t xml:space="preserve">философия</t>
   </si>
   <si>
-    <t xml:space="preserve">28 ноя</t>
+    <t xml:space="preserve">2 дек</t>
   </si>
   <si>
     <t xml:space="preserve">GLMM для нормально-распределенных данных</t>
   </si>
   <si>
-    <t xml:space="preserve">5 дек</t>
+    <t xml:space="preserve">9 дек</t>
   </si>
   <si>
     <t xml:space="preserve">Моделирование структуры дисперсии в смешаных моделях</t>
   </si>
   <si>
-    <t xml:space="preserve">12 дек</t>
+    <t xml:space="preserve">16 дек</t>
   </si>
   <si>
     <t xml:space="preserve">GLMM для счетных данных</t>
   </si>
   <si>
-    <t xml:space="preserve">19 дек</t>
+    <t xml:space="preserve">23 дек</t>
   </si>
   <si>
     <t xml:space="preserve">GLMM для бинарных данных</t>
@@ -225,22 +225,20 @@
     </font>
     <font>
       <b val="true"/>
-      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FFCE181E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +255,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -306,7 +310,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -339,14 +343,22 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -359,15 +371,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,7 +396,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -405,7 +417,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFF200"/>
@@ -451,7 +463,7 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U10" activeCellId="0" sqref="U10"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -641,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="8" t="n">
         <v>4</v>
       </c>
       <c r="J4" s="6" t="n">
@@ -650,7 +662,7 @@
       <c r="K4" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="9" t="n">
         <v>7</v>
       </c>
       <c r="M4" s="6" t="n">
@@ -700,14 +712,14 @@
       <c r="E5" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="10" t="n">
         <v>14</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>15</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="11" t="n">
         <v>11</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -716,7 +728,7 @@
       <c r="K5" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="9" t="n">
         <v>14</v>
       </c>
       <c r="M5" s="6" t="n">
@@ -731,7 +743,7 @@
       <c r="Q5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="S5" s="7" t="s">
@@ -751,7 +763,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="11" t="n">
         <v>16</v>
       </c>
       <c r="B6" s="6" t="n">
@@ -760,20 +772,20 @@
       <c r="C6" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="13" t="n">
         <v>19</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="10" t="n">
         <v>21</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>22</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="11" t="n">
         <v>18</v>
       </c>
       <c r="J6" s="6" t="n">
@@ -782,7 +794,7 @@
       <c r="K6" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="9" t="n">
         <v>21</v>
       </c>
       <c r="M6" s="6" t="n">
@@ -812,7 +824,7 @@
       <c r="V6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="11" t="n">
         <v>23</v>
       </c>
       <c r="B7" s="6" t="n">
@@ -821,20 +833,20 @@
       <c r="C7" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="11" t="n">
         <v>26</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="10" t="n">
         <v>28</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>29</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="13" t="n">
         <v>25</v>
       </c>
       <c r="J7" s="6" t="n">
@@ -843,7 +855,7 @@
       <c r="K7" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="9" t="n">
         <v>28</v>
       </c>
       <c r="M7" s="6" t="n">
@@ -856,7 +868,7 @@
       <c r="Q7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="S7" s="4" t="s">
@@ -871,7 +883,7 @@
       <c r="V7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="15" t="n">
         <v>30</v>
       </c>
       <c r="B8" s="6"/>
@@ -884,7 +896,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -917,11 +929,11 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="Q9" s="7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>31</v>
@@ -963,7 +975,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="Q10" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>36</v>
@@ -1011,7 +1023,7 @@
       <c r="K11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="M11" s="6" t="s">
@@ -1024,7 +1036,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>38</v>
@@ -1048,7 +1060,7 @@
       <c r="C12" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="17" t="n">
         <v>3</v>
       </c>
       <c r="E12" s="6" t="n">
@@ -1064,14 +1076,14 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>40</v>
@@ -1089,7 +1101,7 @@
       <c r="W12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B13" s="6" t="n">
@@ -1098,20 +1110,20 @@
       <c r="C13" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="13" t="n">
         <v>10</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="6" t="n">
         <v>12</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>13</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="11" t="n">
         <v>2</v>
       </c>
       <c r="J13" s="6" t="n">
@@ -1120,7 +1132,7 @@
       <c r="K13" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="9" t="n">
         <v>5</v>
       </c>
       <c r="M13" s="6" t="n">
@@ -1133,7 +1145,7 @@
         <v>8</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>42</v>
@@ -1150,7 +1162,7 @@
       <c r="V13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="17" t="n">
         <v>14</v>
       </c>
       <c r="B14" s="6" t="n">
@@ -1159,7 +1171,7 @@
       <c r="C14" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="9" t="n">
         <v>17</v>
       </c>
       <c r="E14" s="6" t="n">
@@ -1172,7 +1184,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="13" t="n">
         <v>9</v>
       </c>
       <c r="J14" s="6" t="n">
@@ -1181,7 +1193,7 @@
       <c r="K14" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="9" t="n">
         <v>12</v>
       </c>
       <c r="M14" s="6" t="n">
@@ -1194,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>44</v>
@@ -1216,7 +1228,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="11" t="n">
         <v>21</v>
       </c>
       <c r="B15" s="6" t="n">
@@ -1225,20 +1237,20 @@
       <c r="C15" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="9" t="n">
         <v>24</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="F15" s="15" t="n">
+      <c r="F15" s="6" t="n">
         <v>26</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>27</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="11" t="n">
         <v>16</v>
       </c>
       <c r="J15" s="6" t="n">
@@ -1247,7 +1259,7 @@
       <c r="K15" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="9" t="n">
         <v>19</v>
       </c>
       <c r="M15" s="6" t="n">
@@ -1260,7 +1272,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>47</v>
@@ -1282,7 +1294,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="11" t="n">
         <v>28</v>
       </c>
       <c r="B16" s="6" t="n">
@@ -1291,14 +1303,14 @@
       <c r="C16" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="9" t="n">
         <v>31</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="13" t="n">
         <v>23</v>
       </c>
       <c r="J16" s="6" t="n">
@@ -1320,7 +1332,7 @@
         <v>29</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>49</v>
@@ -1356,7 +1368,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="Q17" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>51</v>
@@ -1373,7 +1385,7 @@
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="Q18" s="7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>53</v>
